--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://raseko-my.sharepoint.com/personal/42005_edu_raseko_fi/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8531C23-5FA7-4745-92C9-7E49B7773BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D52549-0C8C-41EC-8B9C-CF23DFCE5AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>Year</t>
   </si>
@@ -66,6 +66,9 @@
     <t>infaltion-GDP</t>
   </si>
   <si>
+    <t>LifeExpectancy</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>$125706651925,557</t>
   </si>
   <si>
+    <t>77.466</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
     <t>$129421029082,774</t>
   </si>
   <si>
+    <t>77.966</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
@@ -102,6 +111,9 @@
     <t>$139738377564,465</t>
   </si>
   <si>
+    <t>78.12</t>
+  </si>
+  <si>
     <t>2003</t>
   </si>
   <si>
@@ -114,6 +126,9 @@
     <t>$171274266365,688</t>
   </si>
   <si>
+    <t>78.368</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
@@ -126,6 +141,9 @@
     <t>$197116960516,514</t>
   </si>
   <si>
+    <t>78.715</t>
+  </si>
+  <si>
     <t>2005</t>
   </si>
   <si>
@@ -138,6 +156,9 @@
     <t>$204809103345,355</t>
   </si>
   <si>
+    <t>78.817</t>
+  </si>
+  <si>
     <t>2006</t>
   </si>
   <si>
@@ -150,6 +171,9 @@
     <t>$216907539831,891</t>
   </si>
   <si>
+    <t>79.215</t>
+  </si>
+  <si>
     <t>2007</t>
   </si>
   <si>
@@ -162,6 +186,9 @@
     <t>$256052559540,104</t>
   </si>
   <si>
+    <t>79.263</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
@@ -174,6 +201,9 @@
     <t>$284553976856,599</t>
   </si>
   <si>
+    <t>79.568</t>
+  </si>
+  <si>
     <t>2009</t>
   </si>
   <si>
@@ -186,6 +216,9 @@
     <t>$252496526813,004</t>
   </si>
   <si>
+    <t>79.72</t>
+  </si>
+  <si>
     <t>2010</t>
   </si>
   <si>
@@ -198,6 +231,9 @@
     <t>$249181190476,369</t>
   </si>
   <si>
+    <t>79.871</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
@@ -210,6 +246,9 @@
     <t>$275243697751,011</t>
   </si>
   <si>
+    <t>80.471</t>
+  </si>
+  <si>
     <t>2012</t>
   </si>
   <si>
@@ -222,6 +261,9 @@
     <t>$258304834621,605</t>
   </si>
   <si>
+    <t>80.627</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
@@ -234,6 +276,9 @@
     <t>$271285280621,373</t>
   </si>
   <si>
+    <t>80.976</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
@@ -246,6 +291,9 @@
     <t>$274497230802,958</t>
   </si>
   <si>
+    <t>81.18</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
@@ -258,6 +306,9 @@
     <t>$234440080998,273</t>
   </si>
   <si>
+    <t>81.48</t>
+  </si>
+  <si>
     <t>2016</t>
   </si>
   <si>
@@ -270,6 +321,9 @@
     <t>$240607907010,383</t>
   </si>
   <si>
+    <t>81.429</t>
+  </si>
+  <si>
     <t>2017</t>
   </si>
   <si>
@@ -282,6 +336,9 @@
     <t>$255016517537,983</t>
   </si>
   <si>
+    <t>81.632</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
@@ -294,6 +351,9 @@
     <t>$275849574507,692</t>
   </si>
   <si>
+    <t>81.734</t>
+  </si>
+  <si>
     <t>2019</t>
   </si>
   <si>
@@ -301,6 +361,9 @@
   </si>
   <si>
     <t>$268966065200</t>
+  </si>
+  <si>
+    <t>81.785</t>
   </si>
   <si>
     <t>2020</t>
@@ -724,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -734,6 +797,7 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75">
@@ -770,7 +834,9 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -779,7 +845,7 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>5176209</v>
@@ -791,16 +857,16 @@
         <v>2649364</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>0.2076065154133</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>5.7733624584817003</v>
@@ -811,10 +877,13 @@
       <c r="K2">
         <v>1.6378314323308301</v>
       </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>5188008</v>
@@ -826,16 +895,16 @@
         <v>2654110</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>0.22768734188637399</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>2.6100191239207402</v>
@@ -846,12 +915,15 @@
       <c r="K3">
         <v>3.30338088882533</v>
       </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
       <c r="O3" s="5"/>
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>5200598</v>
@@ -863,16 +935,16 @@
         <v>2659222</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>0.242381050233372</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>1.7071489619806499</v>
@@ -883,12 +955,15 @@
       <c r="K4">
         <v>0.94426429760157804</v>
       </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>5213014</v>
@@ -900,16 +975,16 @@
         <v>2664209</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>0.238457240068217</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>2.0037842028506101</v>
@@ -920,12 +995,15 @@
       <c r="K5">
         <v>0.18992370622940799</v>
       </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>5228172</v>
@@ -937,16 +1015,16 @@
         <v>2670583</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>0.29035036151858401</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>3.9920912903208698</v>
@@ -957,12 +1035,15 @@
       <c r="K6">
         <v>0.60266124904441698</v>
       </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>5246096</v>
@@ -974,16 +1055,16 @@
         <v>2678383</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>0.342248594286999</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I7">
         <v>2.7798505555612301</v>
@@ -994,12 +1075,15 @@
       <c r="K7">
         <v>0.92894121543858399</v>
       </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>5266268</v>
@@ -1011,16 +1095,16 @@
         <v>2687312</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>0.38377713630510402</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <v>4.0274096580257304</v>
@@ -1031,12 +1115,15 @@
       <c r="K8">
         <v>0.920723414612866</v>
       </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>5288720</v>
@@ -1048,16 +1135,16 @@
         <v>2697418</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>0.42542983210063101</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I9">
         <v>5.2993365073902101</v>
@@ -1068,12 +1155,15 @@
       <c r="K9">
         <v>2.7532807031041</v>
       </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>5313399</v>
@@ -1085,16 +1175,16 @@
         <v>2708636</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>0.46554928450769401</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I10">
         <v>0.78399506087652104</v>
@@ -1105,12 +1195,15 @@
       <c r="K10">
         <v>3.0372367724096101</v>
       </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
       <c r="O10" s="5"/>
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>5338871</v>
@@ -1122,16 +1215,16 @@
         <v>2720215</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>0.47824639348291098</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I11">
         <v>-8.0744474323113007</v>
@@ -1142,12 +1235,15 @@
       <c r="K11">
         <v>1.77390522146771</v>
       </c>
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
       <c r="O11" s="5"/>
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>5363352</v>
@@ -1159,16 +1255,16 @@
         <v>2731215</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>0.45749453546583102</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I12">
         <v>3.1859586540770302</v>
@@ -1179,12 +1275,15 @@
       <c r="K12">
         <v>0.322930666499261</v>
       </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>5388272</v>
@@ -1196,16 +1295,16 @@
         <v>2742371</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G13">
         <v>0.46355870749913097</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I13">
         <v>2.5476648384262699</v>
@@ -1216,12 +1315,15 @@
       <c r="K13">
         <v>2.6235333499222002</v>
       </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>5413971</v>
@@ -1233,16 +1335,16 @@
         <v>2753865</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G14">
         <v>0.47580948668320899</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I14">
         <v>-1.3975457281778201</v>
@@ -1253,12 +1355,15 @@
       <c r="K14">
         <v>2.97397234009919</v>
       </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>5438972</v>
@@ -1270,16 +1375,16 @@
         <v>2764999</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G15">
         <v>0.46072377278529503</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I15">
         <v>-0.90169631619484403</v>
@@ -1290,12 +1395,15 @@
       <c r="K15">
         <v>2.5582945097385701</v>
       </c>
+      <c r="L15" t="s">
+        <v>81</v>
+      </c>
       <c r="O15" s="5"/>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>5461512</v>
@@ -1307,16 +1415,16 @@
         <v>2774944</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G16">
         <v>0.41356020751941402</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I16">
         <v>-0.36490815688206601</v>
@@ -1327,12 +1435,15 @@
       <c r="K16">
         <v>1.6316233366533499</v>
       </c>
+      <c r="L16" t="s">
+        <v>86</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B17">
         <v>5479531</v>
@@ -1344,16 +1455,16 @@
         <v>2782702</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G17">
         <v>0.32938388581850703</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <v>0.54365921176548704</v>
@@ -1364,12 +1475,15 @@
       <c r="K17">
         <v>1.61674649704926</v>
       </c>
+      <c r="L17" t="s">
+        <v>91</v>
+      </c>
       <c r="O17" s="5"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>5495303</v>
@@ -1381,16 +1495,16 @@
         <v>2789446</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G18">
         <v>0.28742140168763702</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I18">
         <v>2.8114577666343301</v>
@@ -1401,12 +1515,15 @@
       <c r="K18">
         <v>8.7425458293452593E-2</v>
       </c>
+      <c r="L18" t="s">
+        <v>96</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>5508214</v>
@@ -1418,16 +1535,16 @@
         <v>2794857</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="G19">
         <v>0.23467053170545299</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <v>3.19240962968416</v>
@@ -1438,12 +1555,15 @@
       <c r="K19">
         <v>0.81926289725878099</v>
       </c>
+      <c r="L19" t="s">
+        <v>101</v>
+      </c>
       <c r="O19" s="5"/>
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="7" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <v>5515525</v>
@@ -1455,16 +1575,16 @@
         <v>2797516</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G20">
         <v>0.132641040791912</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="I20">
         <v>1.3118350530173899</v>
@@ -1475,12 +1595,15 @@
       <c r="K20">
         <v>1.9306102101238001</v>
       </c>
+      <c r="L20" t="s">
+        <v>106</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B21">
         <v>5521606</v>
@@ -1492,16 +1615,16 @@
         <v>2799598</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G21">
         <v>0.110191690491055</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I21">
         <v>1.2728425055455801</v>
@@ -1512,12 +1635,15 @@
       <c r="K21">
         <v>1.51705292122455</v>
       </c>
+      <c r="L21" t="s">
+        <v>110</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B22">
         <v>5530719</v>
@@ -1529,16 +1655,16 @@
         <v>2803244</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G22">
         <v>0.16490651632429201</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="I22">
         <v>-2.7735767057801</v>
@@ -1899,6 +2025,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1907,20 +2039,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8525AF84-A916-4458-8088-390D256FEAB3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ECC3725-060F-4458-BC9B-889ADE2EA402}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA737F8-DCF9-4F00-966B-F2615A26100C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA737F8-DCF9-4F00-966B-F2615A26100C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ECC3725-060F-4458-BC9B-889ADE2EA402}"/>
 </file>